--- a/Project_Management/Sprint4/Burndown chart.xlsx
+++ b/Project_Management/Sprint4/Burndown chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corre\Documents\GitHub\freecol-SE-exercise\Project_Management\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01787A4E-0850-4EAC-97AB-B9D720DE62BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A8BE6B-1D14-4365-9214-BA56D0A9566B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="1640" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -642,6 +645,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,12 +698,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,10 +823,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -937,25 +940,25 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2213,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2230,52 +2233,52 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:20" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="48"/>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="51"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2312,8 +2315,8 @@
       <c r="S4" s="5"/>
     </row>
     <row r="5" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2348,17 +2351,21 @@
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="53">
+      <c r="B6" s="37">
         <v>1</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="32">
         <v>1</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -2384,7 +2391,9 @@
         <v>3</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -2548,39 +2557,39 @@
       <c r="S13" s="16"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="21">
-        <f>SUM(E6:E13)</f>
+        <f t="shared" ref="E14:K14" si="0">SUM(E6:E13)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="21">
-        <f>SUM(F6:F13)</f>
+      <c r="H14" s="21">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="21">
-        <f>SUM(G6:G13)</f>
+      <c r="I14" s="21">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="21">
-        <f>SUM(H6:H13)</f>
+      <c r="J14" s="21">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="21">
-        <f>SUM(I6:I13)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="21">
-        <f>SUM(J6:J13)</f>
-        <v>0</v>
-      </c>
       <c r="K14" s="21">
-        <f>SUM(K6:K13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14" s="21"/>
@@ -2594,41 +2603,41 @@
       <c r="T14" s="29"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="24">
         <f>SUM(D6:D14)</f>
         <v>15</v>
       </c>
       <c r="E15" s="25">
-        <f>D15-SUM(E6:E13)</f>
-        <v>15</v>
+        <f t="shared" ref="E15:K15" si="1">D15-SUM(E6:E13)</f>
+        <v>14.5</v>
       </c>
       <c r="F15" s="22">
-        <f>E15-SUM(F6:F13)</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>13.5</v>
       </c>
       <c r="G15" s="22">
-        <f>F15-SUM(G6:G13)</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>13.5</v>
       </c>
       <c r="H15" s="22">
-        <f>G15-SUM(H6:H13)</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>13.5</v>
       </c>
       <c r="I15" s="22">
-        <f>H15-SUM(I6:I13)</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>13.5</v>
       </c>
       <c r="J15" s="20">
-        <f>I15-SUM(J6:J13)</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>13.5</v>
       </c>
       <c r="K15" s="20">
-        <f>J15-SUM(K6:K13)</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>13.5</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
@@ -2640,10 +2649,10 @@
       <c r="S15" s="23"/>
     </row>
     <row r="16" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="26">
         <f>D15</f>
         <v>15</v>

--- a/Project_Management/Sprint4/Burndown chart.xlsx
+++ b/Project_Management/Sprint4/Burndown chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corre\Documents\GitHub\freecol-SE-exercise\Project_Management\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A8BE6B-1D14-4365-9214-BA56D0A9566B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48825C7-29BB-40A5-88D5-D3024ED0410B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1640" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1870" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -937,28 +937,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,25 +1027,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>15.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>12.857142857142858</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.714285714285715</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5714285714285712</c:v>
+                  <c:v>10.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4285714285714288</c:v>
+                  <c:v>7.7142857142857135</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2857142857142865</c:v>
+                  <c:v>5.1428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1428571428571423</c:v>
+                  <c:v>2.5714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2216,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2416,7 +2416,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="14"/>
@@ -2442,7 +2442,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="14"/>
@@ -2468,7 +2468,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="14"/>
@@ -2609,35 +2609,35 @@
       <c r="C15" s="43"/>
       <c r="D15" s="24">
         <f>SUM(D6:D14)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E15" s="25">
         <f t="shared" ref="E15:K15" si="1">D15-SUM(E6:E13)</f>
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="F15" s="22">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="G15" s="22">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="I15" s="22">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="K15" s="20">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
@@ -2655,31 +2655,31 @@
       <c r="C16" s="45"/>
       <c r="D16" s="26">
         <f>D15</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16" s="27">
         <f>$D$16-($D$16/7*1)</f>
-        <v>12.857142857142858</v>
+        <v>15.428571428571429</v>
       </c>
       <c r="F16" s="1">
         <f>$D$16-($D$16/7*2)</f>
-        <v>10.714285714285715</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="G16" s="1">
         <f>$D$16-($D$16/7*3)</f>
-        <v>8.5714285714285712</v>
+        <v>10.285714285714285</v>
       </c>
       <c r="H16" s="1">
         <f>$D$16-($D$16/7*4)</f>
-        <v>6.4285714285714288</v>
+        <v>7.7142857142857135</v>
       </c>
       <c r="I16" s="1">
         <f>$D$16-($D$16/7*5)</f>
-        <v>4.2857142857142865</v>
+        <v>5.1428571428571423</v>
       </c>
       <c r="J16" s="1">
         <f>$D$16-($D$16/7*6)</f>
-        <v>2.1428571428571423</v>
+        <v>2.5714285714285694</v>
       </c>
       <c r="K16" s="1">
         <f>$D$16-($D$16/7*7)</f>

--- a/Project_Management/Sprint4/Burndown chart.xlsx
+++ b/Project_Management/Sprint4/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corre\Documents\GitHub\freecol-SE-exercise\Project_Management\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48825C7-29BB-40A5-88D5-D3024ED0410B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E430EE8B-342D-4131-9F8B-6A377F459873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1870" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -829,7 +829,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -946,19 +946,19 @@
                   <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2420,7 +2420,9 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -2446,7 +2448,9 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -2472,7 +2476,9 @@
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -2574,7 +2580,7 @@
       </c>
       <c r="G14" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="21">
         <f t="shared" si="0"/>
@@ -2621,23 +2627,23 @@
       </c>
       <c r="G15" s="22">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="I15" s="22">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="K15" s="20">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>

--- a/Project_Management/Sprint4/Burndown chart.xlsx
+++ b/Project_Management/Sprint4/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corre\Documents\GitHub\freecol-SE-exercise\Project_Management\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E430EE8B-342D-4131-9F8B-6A377F459873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281ADE11-A361-44D2-B506-6327F92AE746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1870" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -832,7 +832,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -949,16 +949,16 @@
                   <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2395,7 +2395,9 @@
         <v>1</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -2423,7 +2425,9 @@
       <c r="G8" s="14">
         <v>1</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -2451,7 +2455,9 @@
       <c r="G9" s="14">
         <v>1</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="14">
+        <v>1</v>
+      </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -2479,7 +2485,9 @@
       <c r="G10" s="14">
         <v>1</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -2584,7 +2592,7 @@
       </c>
       <c r="H14" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="21">
         <f t="shared" si="0"/>
@@ -2631,19 +2639,19 @@
       </c>
       <c r="H15" s="22">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="I15" s="22">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="K15" s="20">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>

--- a/Project_Management/Sprint4/Burndown chart.xlsx
+++ b/Project_Management/Sprint4/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corre\Documents\GitHub\freecol-SE-exercise\Project_Management\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281ADE11-A361-44D2-B506-6327F92AE746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADAE712-F627-48A8-9837-A05DF2D8FF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1870" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -832,10 +832,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -937,28 +937,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>17.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.5</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.5</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,25 +1027,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.428571428571429</c:v>
+                  <c:v>16.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.857142857142858</c:v>
+                  <c:v>13.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.285714285714285</c:v>
+                  <c:v>10.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7142857142857135</c:v>
+                  <c:v>8.1428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1428571428571423</c:v>
+                  <c:v>5.428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5714285714285694</c:v>
+                  <c:v>2.7142857142857153</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2216,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2388,7 +2388,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="14">
@@ -2396,9 +2396,11 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14">
+        <v>2</v>
+      </c>
+      <c r="I7" s="14">
         <v>1</v>
       </c>
-      <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -2428,7 +2430,9 @@
       <c r="H8" s="14">
         <v>1</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -2458,7 +2462,9 @@
       <c r="H9" s="14">
         <v>1</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="14">
+        <v>1</v>
+      </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -2488,7 +2494,9 @@
       <c r="H10" s="14">
         <v>1</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -2592,11 +2600,11 @@
       </c>
       <c r="H14" s="21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="0"/>
@@ -2623,19 +2631,19 @@
       <c r="C15" s="43"/>
       <c r="D15" s="24">
         <f>SUM(D6:D14)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" s="25">
         <f t="shared" ref="E15:K15" si="1">D15-SUM(E6:E13)</f>
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="F15" s="22">
         <f t="shared" si="1"/>
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="G15" s="22">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="1"/>
@@ -2643,15 +2651,15 @@
       </c>
       <c r="I15" s="22">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="K15" s="20">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
@@ -2669,31 +2677,31 @@
       <c r="C16" s="45"/>
       <c r="D16" s="26">
         <f>D15</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" s="27">
         <f>$D$16-($D$16/7*1)</f>
-        <v>15.428571428571429</v>
+        <v>16.285714285714285</v>
       </c>
       <c r="F16" s="1">
         <f>$D$16-($D$16/7*2)</f>
-        <v>12.857142857142858</v>
+        <v>13.571428571428571</v>
       </c>
       <c r="G16" s="1">
         <f>$D$16-($D$16/7*3)</f>
-        <v>10.285714285714285</v>
+        <v>10.857142857142858</v>
       </c>
       <c r="H16" s="1">
         <f>$D$16-($D$16/7*4)</f>
-        <v>7.7142857142857135</v>
+        <v>8.1428571428571423</v>
       </c>
       <c r="I16" s="1">
         <f>$D$16-($D$16/7*5)</f>
-        <v>5.1428571428571423</v>
+        <v>5.428571428571427</v>
       </c>
       <c r="J16" s="1">
         <f>$D$16-($D$16/7*6)</f>
-        <v>2.5714285714285694</v>
+        <v>2.7142857142857153</v>
       </c>
       <c r="K16" s="1">
         <f>$D$16-($D$16/7*7)</f>

--- a/Project_Management/Sprint4/Burndown chart.xlsx
+++ b/Project_Management/Sprint4/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corre\Documents\GitHub\freecol-SE-exercise\Project_Management\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADAE712-F627-48A8-9837-A05DF2D8FF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E10D5B-F947-44C3-9E64-A3B8B70CEE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1870" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -838,7 +838,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -955,10 +955,10 @@
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2217,7 +2217,7 @@
   <dimension ref="B1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2433,7 +2433,9 @@
       <c r="I8" s="14">
         <v>1</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="14">
+        <v>1</v>
+      </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -2465,7 +2467,9 @@
       <c r="I9" s="14">
         <v>1</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
@@ -2497,7 +2501,9 @@
       <c r="I10" s="14">
         <v>1</v>
       </c>
-      <c r="J10" s="14"/>
+      <c r="J10" s="14">
+        <v>1</v>
+      </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
@@ -2523,7 +2529,9 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
@@ -2608,7 +2616,7 @@
       </c>
       <c r="J14" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="21">
         <f t="shared" si="0"/>
@@ -2655,11 +2663,11 @@
       </c>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="K15" s="20">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>

--- a/Project_Management/Sprint4/Burndown chart.xlsx
+++ b/Project_Management/Sprint4/Burndown chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corre\Documents\GitHub\freecol-SE-exercise\Project_Management\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E10D5B-F947-44C3-9E64-A3B8B70CEE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D11E864-8E2B-4079-B189-02412D5B66D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1870" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
@@ -823,7 +826,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -841,7 +844,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -937,28 +940,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,25 +1030,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.285714285714285</c:v>
+                  <c:v>18.857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.571428571428571</c:v>
+                  <c:v>15.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.857142857142858</c:v>
+                  <c:v>12.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1428571428571423</c:v>
+                  <c:v>9.4285714285714288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.428571428571427</c:v>
+                  <c:v>6.2857142857142865</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7142857142857153</c:v>
+                  <c:v>3.1428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2216,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2360,8 +2363,8 @@
       <c r="D6" s="32">
         <v>1</v>
       </c>
-      <c r="E6" s="9">
-        <v>0.5</v>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>21</v>
@@ -2420,7 +2423,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="14"/>
@@ -2436,7 +2439,9 @@
       <c r="J8" s="14">
         <v>1</v>
       </c>
-      <c r="K8" s="14"/>
+      <c r="K8" s="14">
+        <v>1</v>
+      </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
@@ -2454,7 +2459,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="14"/>
@@ -2470,7 +2475,9 @@
       <c r="J9" s="14">
         <v>1</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="14">
+        <v>1</v>
+      </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
@@ -2488,7 +2495,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="14"/>
@@ -2504,7 +2511,9 @@
       <c r="J10" s="14">
         <v>1</v>
       </c>
-      <c r="K10" s="14"/>
+      <c r="K10" s="14">
+        <v>1</v>
+      </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
@@ -2532,7 +2541,9 @@
       <c r="J11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
@@ -2596,7 +2607,7 @@
       </c>
       <c r="E14" s="21">
         <f t="shared" ref="E14:K14" si="0">SUM(E6:E13)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="21">
         <f t="shared" si="0"/>
@@ -2620,7 +2631,7 @@
       </c>
       <c r="K14" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -2639,35 +2650,35 @@
       <c r="C15" s="43"/>
       <c r="D15" s="24">
         <f>SUM(D6:D14)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E15" s="25">
         <f t="shared" ref="E15:K15" si="1">D15-SUM(E6:E13)</f>
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="F15" s="22">
         <f t="shared" si="1"/>
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="G15" s="22">
         <f t="shared" si="1"/>
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="I15" s="22">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="K15" s="20">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
@@ -2685,31 +2696,31 @@
       <c r="C16" s="45"/>
       <c r="D16" s="26">
         <f>D15</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E16" s="27">
         <f>$D$16-($D$16/7*1)</f>
-        <v>16.285714285714285</v>
+        <v>18.857142857142858</v>
       </c>
       <c r="F16" s="1">
         <f>$D$16-($D$16/7*2)</f>
-        <v>13.571428571428571</v>
+        <v>15.714285714285715</v>
       </c>
       <c r="G16" s="1">
         <f>$D$16-($D$16/7*3)</f>
-        <v>10.857142857142858</v>
+        <v>12.571428571428571</v>
       </c>
       <c r="H16" s="1">
         <f>$D$16-($D$16/7*4)</f>
-        <v>8.1428571428571423</v>
+        <v>9.4285714285714288</v>
       </c>
       <c r="I16" s="1">
         <f>$D$16-($D$16/7*5)</f>
-        <v>5.428571428571427</v>
+        <v>6.2857142857142865</v>
       </c>
       <c r="J16" s="1">
         <f>$D$16-($D$16/7*6)</f>
-        <v>2.7142857142857153</v>
+        <v>3.1428571428571423</v>
       </c>
       <c r="K16" s="1">
         <f>$D$16-($D$16/7*7)</f>
